--- a/org.panorama-research.waters-2019.requirements/waters-challenge-2019-requirements.xlsx
+++ b/org.panorama-research.waters-2019.requirements/waters-challenge-2019-requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janste/git/waters-challenge-2019/app4mc.waters.fmtv.challenge.requirements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salomem/Dropbox/PHD/Traceability/PANORAMA/git_repo/waters_challenge_artifacts/org.panorama-research.waters-2019.requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AA6284-8917-4045-85F3-E2F2726A1319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F81D621-220E-1C48-AF06-B16DD56CA651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="680" windowWidth="21800" windowHeight="28120" xr2:uid="{7B98FAFD-CFA2-0D46-A189-A24C3A6EEAE5}"/>
+    <workbookView xWindow="4820" yWindow="460" windowWidth="29500" windowHeight="22500" xr2:uid="{7B98FAFD-CFA2-0D46-A189-A24C3A6EEAE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="106">
   <si>
     <t>ID</t>
   </si>
@@ -41,63 +41,21 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The system shall avoid vulnerable road users</t>
-  </si>
-  <si>
     <t>1.1.1</t>
   </si>
   <si>
     <t>1.1</t>
   </si>
   <si>
-    <t>The system shall perform an emergency manoeuvre to avoid vulnerable road users</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>1.2.1.1</t>
-  </si>
-  <si>
     <t>The system shall break to avoid a vulnerable road user</t>
   </si>
   <si>
-    <t>1.2.2</t>
-  </si>
-  <si>
     <t>The system shall switch road lanes to avoid a vulnerable road user, if safe</t>
   </si>
   <si>
-    <t>1.2.2.1</t>
-  </si>
-  <si>
-    <t>1.2.2.2</t>
-  </si>
-  <si>
-    <t>1.2.2.3</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>2.2.1</t>
-  </si>
-  <si>
-    <t>2.2.2</t>
-  </si>
-  <si>
-    <t>2.2.3</t>
-  </si>
-  <si>
-    <t>2.2.4</t>
-  </si>
-  <si>
     <t>The system shall be aware of its current position at all times</t>
   </si>
   <si>
@@ -140,19 +98,10 @@
     <t>The system shall control the vehicle using the calculated vehicle commands</t>
   </si>
   <si>
-    <t>2.2.5</t>
-  </si>
-  <si>
     <t>2.1.1</t>
   </si>
   <si>
     <t>The system shall update the trajectory whenever the way points change or the vehicle has left the trajectory</t>
-  </si>
-  <si>
-    <t>2.2.1.1</t>
-  </si>
-  <si>
-    <t>2.2.1.2</t>
   </si>
   <si>
     <t>The system shall calculate the correct steering angle to follow the trajectory
@@ -190,13 +139,226 @@
   </si>
   <si>
     <t>The system shall switch road lanes within 100ms after a vulnerable road user is detected within a dangerous zone</t>
+  </si>
+  <si>
+    <t>The system shall be able to detect vulnerable road users</t>
+  </si>
+  <si>
+    <t>The system shall avoid collision with obstacles</t>
+  </si>
+  <si>
+    <t>Time interval</t>
+  </si>
+  <si>
+    <t>Safe state</t>
+  </si>
+  <si>
+    <t>The system shall identify and mitigate sensor failures</t>
+  </si>
+  <si>
+    <t>The system shall have more than one sensor used to identify obstacles</t>
+  </si>
+  <si>
+    <t>The system shall inform the driver about sensor failures</t>
+  </si>
+  <si>
+    <t>The system shall prevent unintended breaking</t>
+  </si>
+  <si>
+    <t>The system shall warn the driver in case of ECU failures</t>
+  </si>
+  <si>
+    <t>The system shall monitor the ECU status e.g, power supply</t>
+  </si>
+  <si>
+    <t>The system shall have a redudant breaking system</t>
+  </si>
+  <si>
+    <t>The system shall be able to detect when the steering commands are not on time</t>
+  </si>
+  <si>
+    <t>The system shall ensure that steering commands are provided within Xms</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Sensor fusion</t>
+  </si>
+  <si>
+    <t>The lidar grabber component shall identify when the lidar sensor has failed</t>
+  </si>
+  <si>
+    <t>The camera component shall identify when the camera has failed</t>
+  </si>
+  <si>
+    <t>Lidar component</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>ECU/Hardware monitor</t>
+  </si>
+  <si>
+    <t>The systen shall prevent unintended leaving of the road</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>The system shall use only information from working sensors</t>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>2.1.3</t>
+  </si>
+  <si>
+    <t>2.1.4</t>
+  </si>
+  <si>
+    <t>2.1.5</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>5.8</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>5.10</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.2.1</t>
+  </si>
+  <si>
+    <t>3.2.2</t>
+  </si>
+  <si>
+    <t>3.2.3</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>The system shall avoid unintended acceleration</t>
+  </si>
+  <si>
+    <t>5.2.1</t>
+  </si>
+  <si>
+    <t>5.2.2</t>
+  </si>
+  <si>
+    <t>5.2.3</t>
+  </si>
+  <si>
+    <t>5.2.1.1</t>
+  </si>
+  <si>
+    <t>5.2.1.2</t>
+  </si>
+  <si>
+    <t>5.2.1.3</t>
+  </si>
+  <si>
+    <t>5.2.1.4</t>
+  </si>
+  <si>
+    <t>5.2.1.5</t>
+  </si>
+  <si>
+    <t>The system shall identify and mitigate ECU failures</t>
+  </si>
+  <si>
+    <t>5.2.2.1</t>
+  </si>
+  <si>
+    <t>5.2.2.2</t>
+  </si>
+  <si>
+    <t>The system shall do a sanity check on the calculated speed profile to avoid un-intended acceleration</t>
+  </si>
+  <si>
+    <t>The system shall have more than one sensor used to identify the road lane</t>
+  </si>
+  <si>
+    <t>The system shall do a sanity check on the calculated speed profile to avoid leaving the road un-intentionally</t>
+  </si>
+  <si>
+    <t>4.4.1</t>
+  </si>
+  <si>
+    <t>4.4.2</t>
+  </si>
+  <si>
+    <t>4.4.3</t>
+  </si>
+  <si>
+    <t>4.4.4</t>
+  </si>
+  <si>
+    <t>4.4.5</t>
+  </si>
+  <si>
+    <t>4.4.6</t>
+  </si>
+  <si>
+    <t>4.4.7</t>
+  </si>
+  <si>
+    <t>4.4.8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -205,25 +367,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="16"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -270,26 +439,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,276 +772,1179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EB6FC7-7B12-6A40-928E-4D999F2A9B43}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:AK62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
   <cols>
-    <col min="2" max="2" width="113.5" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="10"/>
+    <col min="2" max="2" width="155.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="10" customWidth="1"/>
+    <col min="6" max="6" width="39" style="10" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="13" customFormat="1">
+      <c r="A3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="8" customFormat="1">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1">
+      <c r="A9" s="3">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="9"/>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="1:37" s="3" customFormat="1">
+      <c r="A17" s="3">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37">
+      <c r="A18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    </row>
+    <row r="19" spans="1:37">
+      <c r="A19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37">
+      <c r="A20" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37">
+      <c r="A21" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37">
+      <c r="A22" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:37" s="3" customFormat="1">
+      <c r="A24" s="3">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" s="6" customFormat="1">
+      <c r="A25" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
+      <c r="AI25" s="13"/>
+      <c r="AJ25" s="13"/>
+      <c r="AK25" s="13"/>
+    </row>
+    <row r="26" spans="1:37" s="8" customFormat="1">
+      <c r="A26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="13"/>
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="13"/>
+      <c r="AK26" s="13"/>
+    </row>
+    <row r="27" spans="1:37" s="6" customFormat="1">
+      <c r="A27" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="13"/>
+      <c r="AI27" s="13"/>
+      <c r="AJ27" s="13"/>
+      <c r="AK27" s="13"/>
+    </row>
+    <row r="28" spans="1:37" s="6" customFormat="1">
+      <c r="A28" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13"/>
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="13"/>
+      <c r="AK28" s="13"/>
+    </row>
+    <row r="29" spans="1:37" s="6" customFormat="1">
+      <c r="A29" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13"/>
+      <c r="AI29" s="13"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="13"/>
+    </row>
+    <row r="30" spans="1:37" s="6" customFormat="1">
+      <c r="A30" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
+      <c r="AI30" s="13"/>
+      <c r="AJ30" s="13"/>
+      <c r="AK30" s="13"/>
+    </row>
+    <row r="31" spans="1:37" s="6" customFormat="1">
+      <c r="A31" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="13"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="13"/>
+      <c r="AI31" s="13"/>
+      <c r="AJ31" s="13"/>
+      <c r="AK31" s="13"/>
+    </row>
+    <row r="32" spans="1:37" s="6" customFormat="1">
+      <c r="A32" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="13"/>
+      <c r="AK32" s="13"/>
+    </row>
+    <row r="33" spans="1:37" s="6" customFormat="1">
+      <c r="A33" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="13"/>
+      <c r="AC33" s="13"/>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="13"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="13"/>
+      <c r="AI33" s="13"/>
+      <c r="AJ33" s="13"/>
+      <c r="AK33" s="13"/>
+    </row>
+    <row r="34" spans="1:37" s="6" customFormat="1">
+      <c r="A34" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="13"/>
+      <c r="AB34" s="13"/>
+      <c r="AC34" s="13"/>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="13"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="13"/>
+      <c r="AI34" s="13"/>
+      <c r="AJ34" s="13"/>
+      <c r="AK34" s="13"/>
+    </row>
+    <row r="35" spans="1:37" s="6" customFormat="1">
+      <c r="A35" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="13"/>
+      <c r="AB35" s="13"/>
+      <c r="AC35" s="13"/>
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="13"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="13"/>
+      <c r="AI35" s="13"/>
+      <c r="AJ35" s="13"/>
+      <c r="AK35" s="13"/>
+    </row>
+    <row r="36" spans="1:37" s="6" customFormat="1">
+      <c r="A36" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="13"/>
+      <c r="AA36" s="13"/>
+      <c r="AB36" s="13"/>
+      <c r="AC36" s="13"/>
+      <c r="AD36" s="13"/>
+      <c r="AE36" s="13"/>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="13"/>
+      <c r="AH36" s="13"/>
+      <c r="AI36" s="13"/>
+      <c r="AJ36" s="13"/>
+      <c r="AK36" s="13"/>
+    </row>
+    <row r="37" spans="1:37" s="6" customFormat="1">
+      <c r="A37" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C37" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="13"/>
+      <c r="Z37" s="13"/>
+      <c r="AA37" s="13"/>
+      <c r="AB37" s="13"/>
+      <c r="AC37" s="13"/>
+      <c r="AD37" s="13"/>
+      <c r="AE37" s="13"/>
+      <c r="AF37" s="13"/>
+      <c r="AG37" s="13"/>
+      <c r="AH37" s="13"/>
+      <c r="AI37" s="13"/>
+      <c r="AJ37" s="13"/>
+      <c r="AK37" s="13"/>
+    </row>
+    <row r="38" spans="1:37" s="6" customFormat="1">
+      <c r="A38" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13"/>
+      <c r="AA38" s="13"/>
+      <c r="AB38" s="13"/>
+      <c r="AC38" s="13"/>
+      <c r="AD38" s="13"/>
+      <c r="AE38" s="13"/>
+      <c r="AF38" s="13"/>
+      <c r="AG38" s="13"/>
+      <c r="AH38" s="13"/>
+      <c r="AI38" s="13"/>
+      <c r="AJ38" s="13"/>
+      <c r="AK38" s="13"/>
+    </row>
+    <row r="39" spans="1:37">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="1:37" s="3" customFormat="1">
+      <c r="A40" s="3">
+        <v>5</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37">
+      <c r="A41" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37">
+      <c r="A42" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37">
+      <c r="A43" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37">
+      <c r="A44" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" ht="66">
+      <c r="A45" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37">
+      <c r="A46" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37">
+      <c r="A47" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37">
+      <c r="A48" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="C59" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="B62" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/org.panorama-research.waters-2019.requirements/waters-challenge-2019-requirements.xlsx
+++ b/org.panorama-research.waters-2019.requirements/waters-challenge-2019-requirements.xlsx
@@ -42,22 +42,22 @@
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
+            <sz val="12"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Bjoern Koopmann
-</t>
+          <t>Bjoern Koopmann:</t>
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="12"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
-          <t>TODO: Add timing requirements</t>
+          <t xml:space="preserve">
+Detection after driving for 5 m at 50 km/h</t>
         </r>
       </text>
     </comment>
@@ -66,7 +66,7 @@
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
+            <sz val="12"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
@@ -75,13 +75,14 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="12"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-TODO: Add timing requirements</t>
+Remains unchanged
+Do we have to define "within a dangerous zone" more precisely?</t>
         </r>
       </text>
     </comment>
@@ -90,7 +91,7 @@
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
+            <sz val="12"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
@@ -99,22 +100,22 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="12"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-TODO: Add timing requirements</t>
+Remains unchanged</t>
         </r>
       </text>
     </comment>
-    <comment ref="B39" authorId="0" shapeId="0">
+    <comment ref="B30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
+            <sz val="12"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
@@ -123,22 +124,22 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="12"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-TODO: Add timing requirements</t>
+Added a default value. A delay of 50 ms should be sufficent from my opinion.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0" shapeId="0">
+    <comment ref="B46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
+            <sz val="12"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
@@ -147,133 +148,13 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
+            <sz val="12"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-TODO: Add timing requirements</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B45" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Bjoern Koopmann:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-TODO: Add timing requirements</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B46" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Bjoern Koopmann:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-TODO: Add timing requirements</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B48" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Bjoern Koopmann:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-TODO: Add timing requirements</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B50" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Bjoern Koopmann:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-TODO: Add timing requirements</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B51" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Bjoern Koopmann:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-TODO: Add timing requirements</t>
+Added two exemplary timing requirements that could be derived from the specification of an interacting system.</t>
         </r>
       </text>
     </comment>
@@ -282,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="129">
   <si>
     <t>ID</t>
   </si>
@@ -482,9 +363,6 @@
     <t>1.2</t>
   </si>
   <si>
-    <t>The system shall detect vulnerable road users in time, i.e. within X ms.</t>
-  </si>
-  <si>
     <t>The system shall be able to detect vulnerable road users.</t>
   </si>
   <si>
@@ -542,16 +420,7 @@
     <t>The system shall be able to detect when the steering commands are not on time.</t>
   </si>
   <si>
-    <t>The system shall ensure that steering commands are provided within X ms.</t>
-  </si>
-  <si>
-    <t>The systen shall prevent unintended leaving of the road.</t>
-  </si>
-  <si>
     <t>The system shall have more than one sensor used to identify the road lane.</t>
-  </si>
-  <si>
-    <t>The system shall do a sanity check on the calculated speed profile to avoid leaving the road un-intentionally.</t>
   </si>
   <si>
     <t>The system shall identify and mitigate ECU failures.</t>
@@ -607,6 +476,81 @@
   </si>
   <si>
     <t>The system shall start breaking within 50 ms after the vulnerable user is detected within a dangerous zone.</t>
+  </si>
+  <si>
+    <t>A-1</t>
+  </si>
+  <si>
+    <t>A-2</t>
+  </si>
+  <si>
+    <t>The vehicle must drive at a maximum speed of 50 km/h.</t>
+  </si>
+  <si>
+    <t>A-3</t>
+  </si>
+  <si>
+    <t>The system shall stop safely after detecting vulnerable road users at a distance of at least 20 m.</t>
+  </si>
+  <si>
+    <t>The system shall reduce its speed to a maximum to reduce the impact energy after detecting vulnerable road users less than 20 m away.</t>
+  </si>
+  <si>
+    <t>The system shall detect vulnerable road users in time, i.e. within 350 ms.</t>
+  </si>
+  <si>
+    <t>The system shall ensure that steering commands are provided within 50 ms.</t>
+  </si>
+  <si>
+    <t>5.4.1</t>
+  </si>
+  <si>
+    <t>5.4.2</t>
+  </si>
+  <si>
+    <t>The system shall provide longitudinal control value updates every 15 ms.</t>
+  </si>
+  <si>
+    <t>The system shall provide lateral control value updates every 5 ms.</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>]0,350] ms</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>Safety mechanism (redundancy)</t>
+  </si>
+  <si>
+    <t>Safety mechanism (monitoring)</t>
+  </si>
+  <si>
+    <t>Safety mechanism (warning)</t>
+  </si>
+  <si>
+    <t>]0,50] ms</t>
+  </si>
+  <si>
+    <t>The system shall do a sanity check on the calculated speed profile to avoid leaving the road unintentionally.</t>
+  </si>
+  <si>
+    <t>Safety mechanism (check)</t>
+  </si>
+  <si>
+    <t>]0,100] ms</t>
+  </si>
+  <si>
+    <t>every 15 ms</t>
+  </si>
+  <si>
+    <t>every 5 ms</t>
+  </si>
+  <si>
+    <t>The system shall prevent unintended leaving of the road.</t>
   </si>
 </sst>
 </file>
@@ -622,19 +566,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Helvetica"/>
@@ -644,6 +575,19 @@
       <sz val="16"/>
       <color theme="0"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -696,22 +640,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1026,211 +971,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK63"/>
+  <dimension ref="A1:AK75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="155.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="162.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39" style="2" customWidth="1"/>
     <col min="7" max="7" width="29.625" style="2" customWidth="1"/>
     <col min="8" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D5" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="D7" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.3">
@@ -1241,10 +1249,13 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.3">
@@ -1252,13 +1263,16 @@
         <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.3">
@@ -1266,10 +1280,13 @@
         <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.3">
@@ -1277,10 +1294,13 @@
         <v>41</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>20</v>
@@ -1291,10 +1311,13 @@
         <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>20</v>
@@ -1305,10 +1328,13 @@
         <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1316,18 +1342,23 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1362,15 +1393,17 @@
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
     </row>
-    <row r="27" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -1405,12 +1438,12 @@
       <c r="AJ27" s="3"/>
       <c r="AK27" s="3"/>
     </row>
-    <row r="28" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>8</v>
@@ -1418,7 +1451,9 @@
       <c r="D28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -1452,18 +1487,18 @@
       <c r="AJ28" s="3"/>
       <c r="AK28" s="3"/>
     </row>
-    <row r="29" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>85</v>
+      <c r="B29" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1501,12 +1536,12 @@
       <c r="AJ29" s="3"/>
       <c r="AK29" s="3"/>
     </row>
-    <row r="30" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>8</v>
@@ -1514,7 +1549,9 @@
       <c r="D30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -1548,17 +1585,19 @@
       <c r="AJ30" s="3"/>
       <c r="AK30" s="3"/>
     </row>
-    <row r="31" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -1593,17 +1632,19 @@
       <c r="AJ31" s="3"/>
       <c r="AK31" s="3"/>
     </row>
-    <row r="32" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -1638,17 +1679,19 @@
       <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
     </row>
-    <row r="33" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
@@ -1685,17 +1728,19 @@
       <c r="AJ33" s="3"/>
       <c r="AK33" s="3"/>
     </row>
-    <row r="34" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
@@ -1732,17 +1777,19 @@
       <c r="AJ34" s="3"/>
       <c r="AK34" s="3"/>
     </row>
-    <row r="35" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -1777,17 +1824,19 @@
       <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
     </row>
-    <row r="36" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -1822,17 +1871,19 @@
       <c r="AJ36" s="3"/>
       <c r="AK36" s="3"/>
     </row>
-    <row r="37" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="2" t="s">
@@ -1869,17 +1920,19 @@
       <c r="AJ37" s="3"/>
       <c r="AK37" s="3"/>
     </row>
-    <row r="38" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="2" t="s">
@@ -1916,18 +1969,18 @@
       <c r="AJ38" s="3"/>
       <c r="AK38" s="3"/>
     </row>
-    <row r="39" spans="1:37" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>85</v>
+      <c r="B39" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1970,7 +2023,10 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.3">
@@ -1978,15 +2034,21 @@
         <v>30</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>93</v>
+      <c r="B43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.3">
@@ -1994,209 +2056,318 @@
         <v>32</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>95</v>
+      <c r="B45" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:37" ht="60.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+      <c r="D45" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>98</v>
+      <c r="B48" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>100</v>
+        <v>36</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>101</v>
+        <v>37</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>17</v>
+        <v>97</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>17</v>
+        <v>98</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D55" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="G55" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D56" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G56" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D57" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="G57" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D59" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="G59" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>20</v>
+      <c r="D60" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="3"/>
+      <c r="B64" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="3"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/org.panorama-research.waters-2019.requirements/waters-challenge-2019-requirements.xlsx
+++ b/org.panorama-research.waters-2019.requirements/waters-challenge-2019-requirements.xlsx
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="129">
   <si>
     <t>ID</t>
   </si>
@@ -402,9 +402,6 @@
     <t>The system shall monitor the ECU status e.g, power supply.</t>
   </si>
   <si>
-    <t>The system shall warn the driver in case of ECU failures.</t>
-  </si>
-  <si>
     <t>The system shall switch road lanes to avoid a vulnerable road user, if safe.</t>
   </si>
   <si>
@@ -421,9 +418,6 @@
   </si>
   <si>
     <t>The system shall have more than one sensor used to identify the road lane.</t>
-  </si>
-  <si>
-    <t>The system shall identify and mitigate ECU failures.</t>
   </si>
   <si>
     <t>The system shall drive through a pre-determined set of way points.</t>
@@ -551,6 +545,12 @@
   </si>
   <si>
     <t>The system shall prevent unintended leaving of the road.</t>
+  </si>
+  <si>
+    <t>The system shall warn the driver in case of controller failures.</t>
+  </si>
+  <si>
+    <t>The system shall identify and mitigate controller failures.</t>
   </si>
 </sst>
 </file>
@@ -590,7 +590,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,6 +627,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -640,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -657,6 +663,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -974,7 +981,7 @@
   <dimension ref="A1:AK75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1023,7 +1030,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1037,7 +1044,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -1051,7 +1058,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1086,7 +1093,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -1097,7 +1104,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -1111,7 +1118,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -1119,13 +1126,13 @@
         <v>65</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1139,7 +1146,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
@@ -1153,7 +1160,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>17</v>
@@ -1170,7 +1177,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>17</v>
@@ -1181,13 +1188,13 @@
         <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>18</v>
@@ -1198,13 +1205,13 @@
         <v>23</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>19</v>
@@ -1221,7 +1228,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>17</v>
@@ -1238,7 +1245,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.3">
@@ -1255,7 +1262,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.3">
@@ -1263,7 +1270,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>8</v>
@@ -1272,7 +1279,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.3">
@@ -1286,21 +1293,21 @@
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>20</v>
@@ -1311,16 +1318,13 @@
         <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.3">
@@ -1328,13 +1332,13 @@
         <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1342,10 +1346,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:37" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -1353,11 +1357,11 @@
         <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1398,11 +1402,11 @@
         <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1443,7 +1447,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>8</v>
@@ -1452,7 +1456,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1492,13 +1496,13 @@
         <v>45</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1541,7 +1545,7 @@
         <v>46</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>8</v>
@@ -1550,7 +1554,7 @@
         <v>13</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1590,13 +1594,13 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1637,13 +1641,13 @@
         <v>57</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1684,13 +1688,13 @@
         <v>58</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1739,7 +1743,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1782,13 +1786,13 @@
         <v>60</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1829,13 +1833,13 @@
         <v>61</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1875,14 +1879,14 @@
       <c r="A37" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1925,19 +1929,17 @@
         <v>63</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="G38" s="2"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -1974,13 +1976,13 @@
         <v>64</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -2023,10 +2025,10 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.3">
@@ -2034,10 +2036,10 @@
         <v>30</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.3">
@@ -2045,10 +2047,10 @@
         <v>31</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.3">
@@ -2056,10 +2058,10 @@
         <v>32</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.3">
@@ -2067,41 +2069,41 @@
         <v>33</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:37" ht="60.75" x14ac:dyDescent="0.3">
@@ -2109,10 +2111,10 @@
         <v>34</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -2120,10 +2122,10 @@
         <v>35</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2131,10 +2133,10 @@
         <v>36</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -2142,10 +2144,10 @@
         <v>37</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -2153,10 +2155,10 @@
         <v>38</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -2164,10 +2166,10 @@
         <v>39</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -2175,10 +2177,10 @@
         <v>31</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -2192,7 +2194,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>17</v>
@@ -2209,7 +2211,7 @@
         <v>8</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>17</v>
@@ -2220,13 +2222,13 @@
         <v>51</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>18</v>
@@ -2237,13 +2239,13 @@
         <v>52</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>19</v>
@@ -2260,7 +2262,7 @@
         <v>8</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>17</v>
@@ -2277,7 +2279,7 @@
         <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -2285,30 +2287,27 @@
         <v>48</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>20</v>
@@ -2319,13 +2318,13 @@
         <v>56</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -2333,13 +2332,13 @@
         <v>49</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -2347,26 +2346,26 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/org.panorama-research.waters-2019.requirements/waters-challenge-2019-requirements.xlsx
+++ b/org.panorama-research.waters-2019.requirements/waters-challenge-2019-requirements.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="465" windowWidth="29505" windowHeight="22500" activeTab="1"/>
+    <workbookView xWindow="4815" yWindow="465" windowWidth="29505" windowHeight="22500"/>
   </bookViews>
   <sheets>
-    <sheet name="Assumptions" sheetId="2" r:id="rId1"/>
-    <sheet name="Requirements" sheetId="1" r:id="rId2"/>
+    <sheet name="Requirements" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,31 +37,6 @@
     <author>Bjoern Koopmann</author>
   </authors>
   <commentList>
-    <comment ref="E11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Bjoern Koopmann:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Remains unchanged
-Do we have to define "within a dangerous zone" more precisely?</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="E18" authorId="0" shapeId="0">
       <text>
         <r>
@@ -87,84 +61,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Bjoern Koopmann:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Remains unchanged</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Bjoern Koopmann:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Added a default value. A delay of 50 ms should be sufficent from my opinion.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E56" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t>Bjoern Koopmann:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Added two exemplary timing requirements that could be derived from the specification of an interacting system.</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="188">
   <si>
     <t>ID</t>
   </si>
@@ -430,9 +332,6 @@
     <t>The system shall identify when the lidar sensor has failed.</t>
   </si>
   <si>
-    <t>A-1</t>
-  </si>
-  <si>
     <t>The system shall stop safely after detecting vulnerable road users at a distance of at least 20 m.</t>
   </si>
   <si>
@@ -721,22 +620,16 @@
     <t>Allocated on Component</t>
   </si>
   <si>
-    <t>A-1.1</t>
-  </si>
-  <si>
-    <t>The system drives at a maximum speed of 50 km/h.</t>
-  </si>
-  <si>
-    <t>The system is used exclusively in urban areas.</t>
-  </si>
-  <si>
     <t>The system shall start breaking within 50 ms after the vulnerable road user is detected within a dangerous zone (tbd).</t>
   </si>
   <si>
-    <t>The system shall switch road lanes within 100 ms after a vulnerable road user is detected within a dangerous zone (tbd).</t>
-  </si>
-  <si>
     <t>The system shall be able to detect when the steering commands are not on time (tbd).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">]0,6.29] s (straight road, no leading/following vehicle, obstacle is 100 m in front of us, emergency breaking) </t>
+  </si>
+  <si>
+    <t>The system shall start switch road lanes within 100 ms after a vulnerable road user is detected within a dangerous zone (tbd).</t>
   </si>
 </sst>
 </file>
@@ -803,12 +696,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -816,6 +703,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,7 +729,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -845,11 +737,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -876,6 +768,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -883,15 +784,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -904,8 +796,11 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1219,325 +1114,291 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM75"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="18"/>
-    <col min="2" max="2" width="164.375" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM75"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.875" style="18"/>
+    <col min="1" max="1" width="10.875" style="17"/>
     <col min="2" max="2" width="10.875" style="1"/>
-    <col min="3" max="3" width="10.875" style="15"/>
-    <col min="4" max="4" width="15.625" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="164.375" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="14"/>
+    <col min="4" max="4" width="15.625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="164.375" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="128.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="14" customWidth="1"/>
     <col min="9" max="9" width="42.125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="98.125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>2</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E2" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22">
-        <v>2</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>97</v>
+      <c r="F2" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="21">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>62</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>63</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>87</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>86</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>124</v>
+      <c r="A7" s="15" t="s">
+        <v>123</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>64</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
-        <v>125</v>
+      <c r="A8" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>65</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:27" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A9" s="15"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
         <v>2</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="21">
         <v>3</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="E10" s="23" t="s">
+      <c r="C10" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>97</v>
+      <c r="F10" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="21">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>188</v>
+      <c r="E11" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="14">
+      <c r="A12" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="13">
         <v>1</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="11" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="10" t="s">
         <v>58</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="H12" s="13"/>
       <c r="I12" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
-        <v>126</v>
+      <c r="A13" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="11" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="10" t="s">
         <v>59</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="H13" s="13"/>
       <c r="I13" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>127</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>126</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="20" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="19" t="s">
         <v>60</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="14"/>
       <c r="I14" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1559,124 +1420,127 @@
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
-        <v>128</v>
+      <c r="A15" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="19" t="s">
         <v>61</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
-        <v>129</v>
+      <c r="A16" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
-        <v>130</v>
+      <c r="A17" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="20" t="s">
-        <v>114</v>
+      <c r="E17" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="11" t="s">
-        <v>91</v>
+      <c r="C18" s="26"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="B20" s="22">
+      <c r="A19" s="15"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:39" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="21">
         <v>4</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="E20" s="23" t="s">
+      <c r="C20" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="F20" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="11" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="10" t="s">
         <v>70</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -1709,28 +1573,28 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
     </row>
-    <row r="22" spans="1:39" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:39" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="11" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1762,27 +1626,27 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
     </row>
-    <row r="23" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
-        <v>123</v>
+    <row r="23" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>122</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="11" t="s">
-        <v>189</v>
+      <c r="C23" s="13"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="34" t="s">
+        <v>187</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H23" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="H23" s="13"/>
       <c r="I23" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -1815,23 +1679,23 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
     </row>
-    <row r="24" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
-        <v>169</v>
+    <row r="24" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>168</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="11" t="s">
-        <v>190</v>
+      <c r="C24" s="13"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="10" t="s">
+        <v>185</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="H24" s="13"/>
       <c r="I24" s="2" t="s">
         <v>13</v>
       </c>
@@ -1866,27 +1730,27 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
     </row>
-    <row r="25" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
-        <v>170</v>
+    <row r="25" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>169</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="11" t="s">
-        <v>92</v>
+      <c r="C25" s="13"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H25" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="H25" s="13"/>
       <c r="I25" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -1920,248 +1784,254 @@
       <c r="AM25" s="2"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" s="10" t="s">
+      <c r="A26" s="15"/>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="E27" s="12" t="s">
+      <c r="C27" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>97</v>
+      <c r="F27" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="21">
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="20" t="s">
-        <v>105</v>
+      <c r="E28" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="19" t="s">
         <v>85</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-    </row>
-    <row r="31" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B31" s="10" t="s">
+      <c r="A30" s="15"/>
+    </row>
+    <row r="31" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="E31" s="12" t="s">
+      <c r="C31" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>97</v>
+      <c r="F31" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="21">
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="10" t="s">
         <v>62</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
-        <v>172</v>
+      <c r="A33" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="10" t="s">
         <v>63</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
-        <v>173</v>
+      <c r="A34" s="17" t="s">
+        <v>172</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="10" t="s">
         <v>87</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
-        <v>174</v>
+      <c r="A35" s="17" t="s">
+        <v>173</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="10" t="s">
         <v>86</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
-        <v>175</v>
+      <c r="A36" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="10" t="s">
         <v>64</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>109</v>
+        <v>177</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
-        <v>176</v>
+      <c r="A37" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="10" t="s">
         <v>65</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>111</v>
+        <v>179</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="17" t="s">
         <v>23</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="11" t="s">
-        <v>106</v>
+      <c r="E38" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>120</v>
+        <v>177</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="11" t="s">
-        <v>105</v>
+      <c r="E39" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>120</v>
+        <v>179</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="10" t="s">
         <v>84</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16"/>
+        <v>180</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="15"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="11"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="10"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="H41" s="13"/>
       <c r="I41" s="1"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -2194,45 +2064,48 @@
       <c r="AL41" s="2"/>
       <c r="AM41" s="2"/>
     </row>
-    <row r="42" spans="1:39" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="B42" s="10" t="s">
+    <row r="42" spans="1:39" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="43" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
-        <v>139</v>
+      <c r="C42" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H42" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="20" t="s">
+      <c r="C43" s="13"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="19" t="s">
         <v>72</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="H43" s="13"/>
       <c r="I43" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -2265,25 +2138,25 @@
       <c r="AL43" s="2"/>
       <c r="AM43" s="2"/>
     </row>
-    <row r="44" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
-        <v>140</v>
+    <row r="44" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="15" t="s">
+        <v>139</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="20" t="s">
+      <c r="C44" s="13"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="19" t="s">
         <v>86</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+      <c r="H44" s="13"/>
       <c r="I44" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -2316,25 +2189,25 @@
       <c r="AL44" s="2"/>
       <c r="AM44" s="2"/>
     </row>
-    <row r="45" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
-        <v>141</v>
+    <row r="45" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="15" t="s">
+        <v>140</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="20" t="s">
+      <c r="C45" s="13"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="19" t="s">
         <v>65</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="H45" s="13"/>
       <c r="I45" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -2367,25 +2240,25 @@
       <c r="AL45" s="2"/>
       <c r="AM45" s="2"/>
     </row>
-    <row r="46" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="16" t="s">
-        <v>144</v>
+    <row r="46" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="15" t="s">
+        <v>143</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="20" t="s">
-        <v>100</v>
+      <c r="C46" s="13"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="H46" s="13"/>
       <c r="I46" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -2418,25 +2291,25 @@
       <c r="AL46" s="2"/>
       <c r="AM46" s="2"/>
     </row>
-    <row r="47" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
-        <v>142</v>
+    <row r="47" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="11" t="s">
-        <v>106</v>
+      <c r="C47" s="13"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="H47" s="13"/>
       <c r="I47" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
@@ -2469,25 +2342,25 @@
       <c r="AL47" s="2"/>
       <c r="AM47" s="2"/>
     </row>
-    <row r="48" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
-        <v>143</v>
+    <row r="48" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="11" t="s">
-        <v>105</v>
+      <c r="C48" s="13"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+      <c r="H48" s="13"/>
       <c r="I48" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
@@ -2520,25 +2393,25 @@
       <c r="AL48" s="2"/>
       <c r="AM48" s="2"/>
     </row>
-    <row r="49" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
-        <v>177</v>
+    <row r="49" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="11" t="s">
+      <c r="C49" s="13"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="10" t="s">
         <v>71</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="H49" s="13"/>
       <c r="I49" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -2572,288 +2445,288 @@
       <c r="AM49" s="2"/>
     </row>
     <row r="50" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A50" s="16"/>
-    </row>
-    <row r="51" spans="1:39" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="24" t="s">
+      <c r="A50" s="15"/>
+    </row>
+    <row r="51" spans="1:39" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" s="24">
+        <v>5</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A52" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="B51" s="25">
-        <v>5</v>
-      </c>
-      <c r="D51" s="24"/>
-      <c r="E51" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F51" s="25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
-        <v>146</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="10" t="s">
         <v>74</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>118</v>
+        <v>96</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A53" s="16" t="s">
-        <v>147</v>
+      <c r="A53" s="15" t="s">
+        <v>146</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="10" t="s">
         <v>75</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>118</v>
+        <v>96</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A54" s="18" t="s">
-        <v>148</v>
+      <c r="A54" s="17" t="s">
+        <v>147</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="10" t="s">
         <v>76</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>118</v>
+        <v>96</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A55" s="18" t="s">
-        <v>149</v>
+      <c r="A55" s="17" t="s">
+        <v>148</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="10" t="s">
         <v>77</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>118</v>
+        <v>96</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A56" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="11" t="s">
-        <v>95</v>
+      <c r="A56" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="27"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A57" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="11" t="s">
-        <v>96</v>
+      <c r="A57" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="27"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A58" s="18" t="s">
-        <v>150</v>
+      <c r="A58" s="17" t="s">
+        <v>149</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J58" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A59" s="18" t="s">
-        <v>151</v>
+      <c r="A59" s="17" t="s">
+        <v>150</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="10" t="s">
         <v>78</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>118</v>
+        <v>96</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A60" s="18" t="s">
-        <v>152</v>
+      <c r="A60" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="10" t="s">
         <v>79</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I60" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I60" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A61" s="18" t="s">
-        <v>153</v>
+      <c r="A61" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="10" t="s">
         <v>80</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>118</v>
+        <v>96</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:39" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="18" t="s">
-        <v>154</v>
+      <c r="A62" s="17" t="s">
+        <v>153</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="10" t="s">
         <v>81</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>118</v>
+        <v>96</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A63" s="18" t="s">
-        <v>155</v>
+      <c r="A63" s="17" t="s">
+        <v>154</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="10" t="s">
         <v>82</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>136</v>
+        <v>96</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="E64" s="11"/>
+      <c r="E64" s="10"/>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="E65" s="11"/>
+      <c r="E65" s="10"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="E66" s="11"/>
+      <c r="E66" s="10"/>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="E67" s="11"/>
+      <c r="E67" s="10"/>
       <c r="I67" s="2"/>
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A69" s="16"/>
+      <c r="A69" s="15"/>
       <c r="B69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="10" t="s">
         <v>68</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
+      <c r="H69" s="13"/>
       <c r="I69" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:39" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="16"/>
+    <row r="70" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="15"/>
       <c r="B70" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="11" t="s">
+      <c r="C70" s="13"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="10" t="s">
         <v>68</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
+      <c r="H70" s="13"/>
       <c r="I70" s="2" t="s">
         <v>12</v>
       </c>
@@ -2892,26 +2765,26 @@
       <c r="B71" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="10" t="s">
         <v>68</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
+      <c r="H71" s="13"/>
       <c r="I71" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:39" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="20" t="s">
-        <v>90</v>
+      <c r="E74" s="19" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="E75" s="20" t="s">
-        <v>89</v>
+      <c r="E75" s="19" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
